--- a/GTEcon_resthick_150_topres_2000_permres_101_rate_9600.xlsx
+++ b/GTEcon_resthick_150_topres_2000_permres_101_rate_9600.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jupyter notebooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\surfdrive\DHC TUD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14329E92-04F9-45ED-950E-BF5C24EDEF69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D1E8F0-D39E-487D-8692-B2C4A33C2C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -480,11 +480,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO733"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -563,7 +565,7 @@
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -607,7 +609,7 @@
         <v>-9600.0049688934796</v>
       </c>
       <c r="O2">
-        <v>352.144469999102</v>
+        <v>350.56104854287918</v>
       </c>
       <c r="P2">
         <v>183.24325133896289</v>
@@ -619,7 +621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>30</v>
       </c>
@@ -675,7 +677,7 @@
         <v>8.2135523613963035E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>60</v>
       </c>
@@ -731,7 +733,7 @@
         <v>0.1642710472279261</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>90</v>
       </c>
@@ -787,7 +789,7 @@
         <v>0.24640657084188911</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>120</v>
       </c>
@@ -843,7 +845,7 @@
         <v>0.32854209445585209</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>150</v>
       </c>
@@ -899,7 +901,7 @@
         <v>0.41067761806981518</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>180</v>
       </c>
@@ -955,7 +957,7 @@
         <v>0.49281314168377832</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>210</v>
       </c>
@@ -1011,7 +1013,7 @@
         <v>0.57494866529774125</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>240</v>
       </c>
@@ -1067,7 +1069,7 @@
         <v>0.65708418891170428</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>270</v>
       </c>
@@ -1123,7 +1125,7 @@
         <v>0.73921971252566732</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>300</v>
       </c>
@@ -1179,7 +1181,7 @@
         <v>0.82135523613963035</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>330</v>
       </c>
@@ -1235,7 +1237,7 @@
         <v>0.90349075975359339</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>360</v>
       </c>
@@ -1291,7 +1293,7 @@
         <v>0.98562628336755653</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>390</v>
       </c>
@@ -1347,7 +1349,7 @@
         <v>1.06776180698152</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>420</v>
       </c>
@@ -1403,7 +1405,7 @@
         <v>1.149897330595482</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>450</v>
       </c>
@@ -1459,7 +1461,7 @@
         <v>1.2320328542094461</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>480</v>
       </c>
@@ -1515,7 +1517,7 @@
         <v>1.314168377823409</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>510</v>
       </c>
@@ -1571,7 +1573,7 @@
         <v>1.3963039014373719</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>540</v>
       </c>
@@ -1627,7 +1629,7 @@
         <v>1.4784394250513351</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>570</v>
       </c>
@@ -1683,7 +1685,7 @@
         <v>1.560574948665298</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>600</v>
       </c>
@@ -1739,7 +1741,7 @@
         <v>1.6427104722792609</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>630</v>
       </c>
@@ -1795,7 +1797,7 @@
         <v>1.7248459958932241</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>660</v>
       </c>
@@ -1851,7 +1853,7 @@
         <v>1.806981519507187</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>690</v>
       </c>
@@ -1907,7 +1909,7 @@
         <v>1.8891170431211499</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>720</v>
       </c>
@@ -1963,7 +1965,7 @@
         <v>1.9712525667351131</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>750</v>
       </c>
@@ -2019,7 +2021,7 @@
         <v>2.0533880903490762</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>780</v>
       </c>
@@ -2075,7 +2077,7 @@
         <v>2.1355236139630391</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>810</v>
       </c>
@@ -2131,7 +2133,7 @@
         <v>2.2176591375770021</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>840</v>
       </c>
@@ -2187,7 +2189,7 @@
         <v>2.299794661190965</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>870</v>
       </c>
@@ -2243,7 +2245,7 @@
         <v>2.3819301848049279</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>900</v>
       </c>
@@ -2299,7 +2301,7 @@
         <v>2.4640657084188908</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>930</v>
       </c>
@@ -2355,7 +2357,7 @@
         <v>2.5462012320328542</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>960</v>
       </c>
@@ -2411,7 +2413,7 @@
         <v>2.6283367556468171</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>990</v>
       </c>
@@ -2467,7 +2469,7 @@
         <v>2.71047227926078</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>1020</v>
       </c>
@@ -2523,7 +2525,7 @@
         <v>2.792607802874743</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>1050</v>
       </c>
@@ -2579,7 +2581,7 @@
         <v>2.8747433264887059</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>1080</v>
       </c>
@@ -2635,7 +2637,7 @@
         <v>2.9568788501026688</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>1110</v>
       </c>
@@ -2691,7 +2693,7 @@
         <v>3.0390143737166331</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>1140</v>
       </c>
@@ -2747,7 +2749,7 @@
         <v>3.121149897330596</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>1170</v>
       </c>
@@ -2803,7 +2805,7 @@
         <v>3.203285420944558</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>1200</v>
       </c>
@@ -2859,7 +2861,7 @@
         <v>3.285420944558521</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>1230</v>
       </c>
@@ -2915,7 +2917,7 @@
         <v>3.3675564681724852</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>1260</v>
       </c>
@@ -2971,7 +2973,7 @@
         <v>3.4496919917864481</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>1290</v>
       </c>
@@ -3027,7 +3029,7 @@
         <v>3.5318275154004111</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>1320</v>
       </c>
@@ -3083,7 +3085,7 @@
         <v>3.613963039014374</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>1350</v>
       </c>
@@ -3139,7 +3141,7 @@
         <v>3.6960985626283369</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>1380</v>
       </c>
@@ -3195,7 +3197,7 @@
         <v>3.7782340862422998</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>1410</v>
       </c>
@@ -3251,7 +3253,7 @@
         <v>3.8603696098562632</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>1440</v>
       </c>
@@ -3307,7 +3309,7 @@
         <v>3.9425051334702261</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>1470</v>
       </c>
@@ -3363,7 +3365,7 @@
         <v>4.0246406570841886</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>1500</v>
       </c>
@@ -3419,7 +3421,7 @@
         <v>4.1067761806981524</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>1530</v>
       </c>
@@ -3475,7 +3477,7 @@
         <v>4.1889117043121153</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>1560</v>
       </c>
@@ -3531,7 +3533,7 @@
         <v>4.2710472279260783</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>1590</v>
       </c>
@@ -3587,7 +3589,7 @@
         <v>4.3531827515400412</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>1620</v>
       </c>
@@ -3643,7 +3645,7 @@
         <v>4.4353182751540041</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>1650</v>
       </c>
@@ -3699,7 +3701,7 @@
         <v>4.517453798767967</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>1680</v>
       </c>
@@ -3755,7 +3757,7 @@
         <v>4.59958932238193</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>1710</v>
       </c>
@@ -3811,7 +3813,7 @@
         <v>4.6817248459958929</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>1740</v>
       </c>
@@ -3867,7 +3869,7 @@
         <v>4.7638603696098567</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>1770</v>
       </c>
@@ -3923,7 +3925,7 @@
         <v>4.8459958932238196</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>1800</v>
       </c>
@@ -3979,7 +3981,7 @@
         <v>4.9281314168377834</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>1830</v>
       </c>
@@ -4035,7 +4037,7 @@
         <v>5.0102669404517446</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>1860</v>
       </c>
@@ -4091,7 +4093,7 @@
         <v>5.0924024640657084</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>1890</v>
       </c>
@@ -4147,7 +4149,7 @@
         <v>5.1745379876796713</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>1920</v>
       </c>
@@ -4203,7 +4205,7 @@
         <v>5.2566735112936342</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>1950</v>
       </c>
@@ -4259,7 +4261,7 @@
         <v>5.3388090349075972</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>1980</v>
       </c>
@@ -4315,7 +4317,7 @@
         <v>5.420944558521561</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>2010</v>
       </c>
@@ -4371,7 +4373,7 @@
         <v>5.5030800821355239</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>2040</v>
       </c>
@@ -4427,7 +4429,7 @@
         <v>5.5852156057494868</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>2070</v>
       </c>
@@ -4483,7 +4485,7 @@
         <v>5.6673511293634498</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>2100</v>
       </c>
@@ -4539,7 +4541,7 @@
         <v>5.7494866529774127</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>2130</v>
       </c>
@@ -4595,7 +4597,7 @@
         <v>5.8316221765913756</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>2160</v>
       </c>
@@ -4651,7 +4653,7 @@
         <v>5.9137577002053394</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>2190</v>
       </c>
@@ -4707,7 +4709,7 @@
         <v>5.9958932238193006</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>2220</v>
       </c>
@@ -4763,7 +4765,7 @@
         <v>6.0780287474332653</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>2250</v>
       </c>
@@ -4819,7 +4821,7 @@
         <v>6.1601642710472282</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>2280</v>
       </c>
@@ -4875,7 +4877,7 @@
         <v>6.2422997946611911</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>2310</v>
       </c>
@@ -4931,7 +4933,7 @@
         <v>6.324435318275154</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>2340</v>
       </c>
@@ -4987,7 +4989,7 @@
         <v>6.406570841889117</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>2370</v>
       </c>
@@ -5043,7 +5045,7 @@
         <v>6.4887063655030799</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>2400</v>
       </c>
@@ -5099,7 +5101,7 @@
         <v>6.5708418891170428</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>2430</v>
       </c>
@@ -5155,7 +5157,7 @@
         <v>6.6529774127310057</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>2460</v>
       </c>
@@ -5211,7 +5213,7 @@
         <v>6.7351129363449704</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>2490</v>
       </c>
@@ -5267,7 +5269,7 @@
         <v>6.8172484599589316</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>2520</v>
       </c>
@@ -5323,7 +5325,7 @@
         <v>6.8993839835728954</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>2550</v>
       </c>
@@ -5379,7 +5381,7 @@
         <v>6.9815195071868583</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>2580</v>
       </c>
@@ -5435,7 +5437,7 @@
         <v>7.0636550308008212</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>2610</v>
       </c>
@@ -5491,7 +5493,7 @@
         <v>7.1457905544147842</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>2640</v>
       </c>
@@ -5547,7 +5549,7 @@
         <v>7.2279260780287471</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>2670</v>
       </c>
@@ -5603,7 +5605,7 @@
         <v>7.3100616016427109</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>2700</v>
       </c>
@@ -5659,7 +5661,7 @@
         <v>7.3921971252566738</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>2730</v>
       </c>
@@ -5715,7 +5717,7 @@
         <v>7.4743326488706368</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>2760</v>
       </c>
@@ -5771,7 +5773,7 @@
         <v>7.5564681724845997</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>2790</v>
       </c>
@@ -5827,7 +5829,7 @@
         <v>7.6386036960985626</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>2820</v>
       </c>
@@ -5883,7 +5885,7 @@
         <v>7.7207392197125264</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>2850</v>
       </c>
@@ -5939,7 +5941,7 @@
         <v>7.8028747433264893</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>2880</v>
       </c>
@@ -5995,7 +5997,7 @@
         <v>7.8850102669404523</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>2910</v>
       </c>
@@ -6051,7 +6053,7 @@
         <v>7.9671457905544161</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>2940</v>
       </c>
@@ -6107,7 +6109,7 @@
         <v>8.049281314168379</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>2970</v>
       </c>
@@ -6163,7 +6165,7 @@
         <v>8.131416837782341</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>3000</v>
       </c>
@@ -6219,7 +6221,7 @@
         <v>8.2135523613963048</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>3030</v>
       </c>
@@ -6275,7 +6277,7 @@
         <v>8.2956878850102687</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>3060</v>
       </c>
@@ -6331,7 +6333,7 @@
         <v>8.3778234086242307</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>3090</v>
       </c>
@@ -6387,7 +6389,7 @@
         <v>8.4599589322381945</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>3120</v>
       </c>
@@ -6443,7 +6445,7 @@
         <v>8.5420944558521565</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>3149.9999999999882</v>
       </c>
@@ -6499,7 +6501,7 @@
         <v>8.6242299794661186</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>3180</v>
       </c>
@@ -6555,7 +6557,7 @@
         <v>8.7063655030800824</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>3209.9999999999882</v>
       </c>
@@ -6611,7 +6613,7 @@
         <v>8.7885010266940444</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>3240</v>
       </c>
@@ -6667,7 +6669,7 @@
         <v>8.8706365503080082</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>3270</v>
       </c>
@@ -6723,7 +6725,7 @@
         <v>8.9527720739219721</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>3300</v>
       </c>
@@ -6779,7 +6781,7 @@
         <v>9.0349075975359341</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>3330</v>
       </c>
@@ -6835,7 +6837,7 @@
         <v>9.1170431211498979</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>3360</v>
       </c>
@@ -6891,7 +6893,7 @@
         <v>9.1991786447638599</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>3390</v>
       </c>
@@ -6947,7 +6949,7 @@
         <v>9.2813141683778237</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>3420</v>
       </c>
@@ -7003,7 +7005,7 @@
         <v>9.3634496919917858</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>3450</v>
       </c>
@@ -7059,7 +7061,7 @@
         <v>9.4455852156057496</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>3480</v>
       </c>
@@ -7115,7 +7117,7 @@
         <v>9.5277207392197134</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>3510</v>
       </c>
@@ -7171,7 +7173,7 @@
         <v>9.6098562628336754</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>3540</v>
       </c>
@@ -7227,7 +7229,7 @@
         <v>9.6919917864476393</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>3570</v>
       </c>
@@ -7283,7 +7285,7 @@
         <v>9.7741273100616013</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>3600</v>
       </c>
@@ -7339,7 +7341,7 @@
         <v>9.8562628336755651</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>3630</v>
       </c>
@@ -7395,7 +7397,7 @@
         <v>9.9383983572895271</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>3660</v>
       </c>
@@ -7451,7 +7453,7 @@
         <v>10.020533880903489</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>3690</v>
       </c>
@@ -7507,7 +7509,7 @@
         <v>10.102669404517449</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>3720</v>
       </c>
@@ -7563,7 +7565,7 @@
         <v>10.18480492813142</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>3750</v>
       </c>
@@ -7619,7 +7621,7 @@
         <v>10.266940451745381</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>3780</v>
       </c>
@@ -7675,7 +7677,7 @@
         <v>10.349075975359341</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>3810</v>
       </c>
@@ -7731,7 +7733,7 @@
         <v>10.43121149897331</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>3840</v>
       </c>
@@ -7787,7 +7789,7 @@
         <v>10.51334702258727</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>3870</v>
       </c>
@@ -7843,7 +7845,7 @@
         <v>10.595482546201231</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>3900</v>
       </c>
@@ -7899,7 +7901,7 @@
         <v>10.677618069815191</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>3930</v>
       </c>
@@ -7955,7 +7957,7 @@
         <v>10.75975359342916</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>3960</v>
       </c>
@@ -8011,7 +8013,7 @@
         <v>10.84188911704312</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>3990</v>
       </c>
@@ -8067,7 +8069,7 @@
         <v>10.92402464065708</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>4020</v>
       </c>
@@ -8123,7 +8125,7 @@
         <v>11.00616016427105</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>4050</v>
       </c>
@@ -8179,7 +8181,7 @@
         <v>11.08829568788501</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>4080</v>
       </c>
@@ -8235,7 +8237,7 @@
         <v>11.17043121149897</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>4110</v>
       </c>
@@ -8291,7 +8293,7 @@
         <v>11.252566735112939</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>4140</v>
       </c>
@@ -8347,7 +8349,7 @@
         <v>11.3347022587269</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>4170</v>
       </c>
@@ -8403,7 +8405,7 @@
         <v>11.41683778234086</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>4200</v>
       </c>
@@ -8459,7 +8461,7 @@
         <v>11.498973305954831</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>4230</v>
       </c>
@@ -8515,7 +8517,7 @@
         <v>11.581108829568789</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>4260</v>
       </c>
@@ -8571,7 +8573,7 @@
         <v>11.663244353182749</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>4290</v>
       </c>
@@ -8627,7 +8629,7 @@
         <v>11.74537987679672</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>4320</v>
       </c>
@@ -8683,7 +8685,7 @@
         <v>11.827515400410681</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>4350</v>
       </c>
@@ -8739,7 +8741,7 @@
         <v>11.909650924024641</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>4380</v>
       </c>
@@ -8795,7 +8797,7 @@
         <v>11.991786447638599</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>4410</v>
       </c>
@@ -8851,7 +8853,7 @@
         <v>12.07392197125257</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>4440</v>
       </c>
@@ -8907,7 +8909,7 @@
         <v>12.156057494866531</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>4470</v>
       </c>
@@ -8963,7 +8965,7 @@
         <v>12.238193018480491</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>4500</v>
       </c>
@@ -9019,7 +9021,7 @@
         <v>12.32032854209446</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>4530</v>
       </c>
@@ -9075,7 +9077,7 @@
         <v>12.40246406570842</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>4560</v>
       </c>
@@ -9131,7 +9133,7 @@
         <v>12.48459958932238</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>4590</v>
       </c>
@@ -9187,7 +9189,7 @@
         <v>12.566735112936341</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>4620</v>
       </c>
@@ -9243,7 +9245,7 @@
         <v>12.64887063655031</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>4650</v>
       </c>
@@ -9299,7 +9301,7 @@
         <v>12.73100616016427</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>4680</v>
       </c>
@@ -9355,7 +9357,7 @@
         <v>12.81314168377823</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>4710</v>
       </c>
@@ -9411,7 +9413,7 @@
         <v>12.8952772073922</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>4740</v>
       </c>
@@ -9467,7 +9469,7 @@
         <v>12.97741273100616</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>4770</v>
       </c>
@@ -9523,7 +9525,7 @@
         <v>13.05954825462012</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>4800</v>
       </c>
@@ -9579,7 +9581,7 @@
         <v>13.141683778234089</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>4830</v>
       </c>
@@ -9635,7 +9637,7 @@
         <v>13.223819301848049</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>4860</v>
       </c>
@@ -9691,7 +9693,7 @@
         <v>13.30595482546201</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>4890</v>
       </c>
@@ -9747,7 +9749,7 @@
         <v>13.388090349075981</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>4920</v>
       </c>
@@ -9803,7 +9805,7 @@
         <v>13.470225872689941</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>4950</v>
       </c>
@@ -9859,7 +9861,7 @@
         <v>13.552361396303899</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>4980</v>
       </c>
@@ -9915,7 +9917,7 @@
         <v>13.63449691991786</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>5010</v>
       </c>
@@ -9971,7 +9973,7 @@
         <v>13.716632443531831</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>5040</v>
       </c>
@@ -10027,7 +10029,7 @@
         <v>13.798767967145791</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>5070</v>
       </c>
@@ -10083,7 +10085,7 @@
         <v>13.880903490759749</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>5100</v>
       </c>
@@ -10139,7 +10141,7 @@
         <v>13.96303901437372</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>5130</v>
       </c>
@@ -10195,7 +10197,7 @@
         <v>14.04517453798768</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>5160</v>
       </c>
@@ -10251,7 +10253,7 @@
         <v>14.127310061601641</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>5190</v>
       </c>
@@ -10307,7 +10309,7 @@
         <v>14.20944558521561</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>5220</v>
       </c>
@@ -10363,7 +10365,7 @@
         <v>14.29158110882957</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>5250</v>
       </c>
@@ -10419,7 +10421,7 @@
         <v>14.37371663244353</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>5280</v>
       </c>
@@ -10475,7 +10477,7 @@
         <v>14.455852156057491</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>5310</v>
       </c>
@@ -10531,7 +10533,7 @@
         <v>14.53798767967146</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>5340</v>
       </c>
@@ -10587,7 +10589,7 @@
         <v>14.62012320328542</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>5370</v>
       </c>
@@ -10643,7 +10645,7 @@
         <v>14.70225872689938</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>5400</v>
       </c>
@@ -10699,7 +10701,7 @@
         <v>14.784394250513349</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>5430</v>
       </c>
@@ -10755,7 +10757,7 @@
         <v>14.86652977412731</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>5460</v>
       </c>
@@ -10811,7 +10813,7 @@
         <v>14.94866529774127</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>5490</v>
       </c>
@@ -10867,7 +10869,7 @@
         <v>15.030800821355241</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>5520</v>
       </c>
@@ -10923,7 +10925,7 @@
         <v>15.112936344969199</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>5550</v>
       </c>
@@ -10979,7 +10981,7 @@
         <v>15.19507186858316</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>5580</v>
       </c>
@@ -11035,7 +11037,7 @@
         <v>15.277207392197131</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>5610</v>
       </c>
@@ -11091,7 +11093,7 @@
         <v>15.359342915811091</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>5640</v>
       </c>
@@ -11147,7 +11149,7 @@
         <v>15.441478439425049</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>5670</v>
       </c>
@@ -11203,7 +11205,7 @@
         <v>15.52361396303902</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>5700</v>
       </c>
@@ -11259,7 +11261,7 @@
         <v>15.60574948665298</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>5730</v>
       </c>
@@ -11315,7 +11317,7 @@
         <v>15.687885010266941</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>5760</v>
       </c>
@@ -11371,7 +11373,7 @@
         <v>15.770020533880899</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>5790</v>
       </c>
@@ -11427,7 +11429,7 @@
         <v>15.85215605749487</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>5820</v>
       </c>
@@ -11483,7 +11485,7 @@
         <v>15.93429158110883</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>5850</v>
       </c>
@@ -11539,7 +11541,7 @@
         <v>16.016427104722791</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>5880</v>
       </c>
@@ -11595,7 +11597,7 @@
         <v>16.098562628336762</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>5910</v>
       </c>
@@ -11651,7 +11653,7 @@
         <v>16.180698151950718</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>5940</v>
       </c>
@@ -11707,7 +11709,7 @@
         <v>16.262833675564679</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>5970</v>
       </c>
@@ -11763,7 +11765,7 @@
         <v>16.344969199178649</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>6000</v>
       </c>
@@ -11819,7 +11821,7 @@
         <v>16.42710472279261</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>6030</v>
       </c>
@@ -11875,7 +11877,7 @@
         <v>16.50924024640657</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>6060</v>
       </c>
@@ -11931,7 +11933,7 @@
         <v>16.591375770020541</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>6090</v>
       </c>
@@ -11987,7 +11989,7 @@
         <v>16.673511293634501</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>6120</v>
       </c>
@@ -12043,7 +12045,7 @@
         <v>16.755646817248461</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>6150</v>
       </c>
@@ -12099,7 +12101,7 @@
         <v>16.837782340862429</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>6180</v>
       </c>
@@ -12155,7 +12157,7 @@
         <v>16.919917864476389</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>6210</v>
       </c>
@@ -12211,7 +12213,7 @@
         <v>17.002053388090349</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>6240</v>
       </c>
@@ -12267,7 +12269,7 @@
         <v>17.08418891170431</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>6270</v>
       </c>
@@ -12323,7 +12325,7 @@
         <v>17.16632443531828</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>6299.9999999999891</v>
       </c>
@@ -12379,7 +12381,7 @@
         <v>17.248459958932241</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>6330</v>
       </c>
@@ -12435,7 +12437,7 @@
         <v>17.330595482546201</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>6360</v>
       </c>
@@ -12491,7 +12493,7 @@
         <v>17.412731006160161</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>6390</v>
       </c>
@@ -12547,7 +12549,7 @@
         <v>17.494866529774129</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>6419.9999999999891</v>
       </c>
@@ -12603,7 +12605,7 @@
         <v>17.577002053388089</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>6450</v>
       </c>
@@ -12659,7 +12661,7 @@
         <v>17.659137577002049</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>6480</v>
       </c>
@@ -12715,7 +12717,7 @@
         <v>17.74127310061602</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>6510</v>
       </c>
@@ -12771,7 +12773,7 @@
         <v>17.82340862422998</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>6540</v>
       </c>
@@ -12827,7 +12829,7 @@
         <v>17.905544147843941</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>6569.9999999999891</v>
       </c>
@@ -12883,7 +12885,7 @@
         <v>17.987679671457901</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>6600</v>
       </c>
@@ -12939,7 +12941,7 @@
         <v>18.069815195071872</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>6630</v>
       </c>
@@ -12995,7 +12997,7 @@
         <v>18.151950718685828</v>
       </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>6660</v>
       </c>
@@ -13051,7 +13053,7 @@
         <v>18.234086242299799</v>
       </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>6690</v>
       </c>
@@ -13107,7 +13109,7 @@
         <v>18.31622176591376</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>6720</v>
       </c>
@@ -13163,7 +13165,7 @@
         <v>18.39835728952772</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>6750</v>
       </c>
@@ -13219,7 +13221,7 @@
         <v>18.48049281314168</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>6780</v>
       </c>
@@ -13275,7 +13277,7 @@
         <v>18.562628336755651</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>6810</v>
       </c>
@@ -13331,7 +13333,7 @@
         <v>18.644763860369611</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>6840</v>
       </c>
@@ -13387,7 +13389,7 @@
         <v>18.726899383983572</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>6870</v>
       </c>
@@ -13443,7 +13445,7 @@
         <v>18.809034907597539</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>6900</v>
       </c>
@@ -13499,7 +13501,7 @@
         <v>18.891170431211499</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>6930</v>
       </c>
@@ -13555,7 +13557,7 @@
         <v>18.973305954825459</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>6960</v>
       </c>
@@ -13611,7 +13613,7 @@
         <v>19.05544147843943</v>
       </c>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>6990</v>
       </c>
@@ -13667,7 +13669,7 @@
         <v>19.137577002053391</v>
       </c>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>7020</v>
       </c>
@@ -13723,7 +13725,7 @@
         <v>19.219712525667351</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>7050</v>
       </c>
@@ -13779,7 +13781,7 @@
         <v>19.301848049281311</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>7080</v>
       </c>
@@ -13835,7 +13837,7 @@
         <v>19.383983572895279</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>7110</v>
       </c>
@@ -13891,7 +13893,7 @@
         <v>19.466119096509239</v>
       </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>7140</v>
       </c>
@@ -13947,7 +13949,7 @@
         <v>19.548254620123199</v>
       </c>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>7170</v>
       </c>
@@ -14003,7 +14005,7 @@
         <v>19.63039014373717</v>
       </c>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>7200</v>
       </c>
@@ -14059,7 +14061,7 @@
         <v>19.71252566735113</v>
       </c>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>7230</v>
       </c>
@@ -14115,7 +14117,7 @@
         <v>19.79466119096509</v>
       </c>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>7260</v>
       </c>
@@ -14171,7 +14173,7 @@
         <v>19.876796714579051</v>
       </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>7290</v>
       </c>
@@ -14227,7 +14229,7 @@
         <v>19.958932238193022</v>
       </c>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>7320</v>
       </c>
@@ -14283,7 +14285,7 @@
         <v>20.041067761806978</v>
       </c>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>7350</v>
       </c>
@@ -14339,7 +14341,7 @@
         <v>20.123203285420949</v>
       </c>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>7380</v>
       </c>
@@ -14395,7 +14397,7 @@
         <v>20.20533880903491</v>
       </c>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>7410</v>
       </c>
@@ -14451,7 +14453,7 @@
         <v>20.28747433264887</v>
       </c>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>7440</v>
       </c>
@@ -14507,7 +14509,7 @@
         <v>20.36960985626283</v>
       </c>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>7470</v>
       </c>
@@ -14563,7 +14565,7 @@
         <v>20.451745379876801</v>
       </c>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>7500</v>
       </c>
@@ -14619,7 +14621,7 @@
         <v>20.533880903490761</v>
       </c>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>7530</v>
       </c>
@@ -14675,7 +14677,7 @@
         <v>20.616016427104721</v>
       </c>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>7560</v>
       </c>
@@ -14731,7 +14733,7 @@
         <v>20.698151950718689</v>
       </c>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>7590</v>
       </c>
@@ -14787,7 +14789,7 @@
         <v>20.780287474332649</v>
       </c>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>7620</v>
       </c>
@@ -14843,7 +14845,7 @@
         <v>20.862422997946609</v>
       </c>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>7650</v>
       </c>
@@ -14899,7 +14901,7 @@
         <v>20.94455852156057</v>
       </c>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>7680</v>
       </c>
@@ -14955,7 +14957,7 @@
         <v>21.026694045174541</v>
       </c>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>7710</v>
       </c>
@@ -15011,7 +15013,7 @@
         <v>21.108829568788501</v>
       </c>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>7740</v>
       </c>
@@ -15067,7 +15069,7 @@
         <v>21.190965092402461</v>
       </c>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>7770</v>
       </c>
@@ -15123,7 +15125,7 @@
         <v>21.273100616016428</v>
       </c>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>7800</v>
       </c>
@@ -15179,7 +15181,7 @@
         <v>21.355236139630389</v>
       </c>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>7830</v>
       </c>
@@ -15235,7 +15237,7 @@
         <v>21.437371663244349</v>
       </c>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>7860</v>
       </c>
@@ -15291,7 +15293,7 @@
         <v>21.51950718685832</v>
       </c>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>7890</v>
       </c>
@@ -15347,7 +15349,7 @@
         <v>21.60164271047228</v>
       </c>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>7920</v>
       </c>
@@ -15403,7 +15405,7 @@
         <v>21.68377823408624</v>
       </c>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>7950</v>
       </c>
@@ -15459,7 +15461,7 @@
         <v>21.765913757700201</v>
       </c>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>7980</v>
       </c>
@@ -15515,7 +15517,7 @@
         <v>21.848049281314172</v>
       </c>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>8010</v>
       </c>
@@ -15571,7 +15573,7 @@
         <v>21.930184804928128</v>
       </c>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>8040</v>
       </c>
@@ -15627,7 +15629,7 @@
         <v>22.012320328542099</v>
       </c>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <v>8070</v>
       </c>
@@ -15683,7 +15685,7 @@
         <v>22.094455852156059</v>
       </c>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>8100</v>
       </c>
@@ -15739,7 +15741,7 @@
         <v>22.17659137577002</v>
       </c>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <v>8130</v>
       </c>
@@ -15795,7 +15797,7 @@
         <v>22.25872689938398</v>
       </c>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>8160</v>
       </c>
@@ -15851,7 +15853,7 @@
         <v>22.340862422997951</v>
       </c>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <v>8190</v>
       </c>
@@ -15907,7 +15909,7 @@
         <v>22.422997946611911</v>
       </c>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>8220</v>
       </c>
@@ -15963,7 +15965,7 @@
         <v>22.505133470225871</v>
       </c>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <v>8250</v>
       </c>
@@ -16019,7 +16021,7 @@
         <v>22.587268993839839</v>
       </c>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <v>8280</v>
       </c>
@@ -16075,7 +16077,7 @@
         <v>22.669404517453799</v>
       </c>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <v>8310</v>
       </c>
@@ -16131,7 +16133,7 @@
         <v>22.751540041067759</v>
       </c>
     </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <v>8340</v>
       </c>
@@ -16187,7 +16189,7 @@
         <v>22.83367556468172</v>
       </c>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <v>8370</v>
       </c>
@@ -16243,7 +16245,7 @@
         <v>22.91581108829569</v>
       </c>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <v>8400</v>
       </c>
@@ -16299,7 +16301,7 @@
         <v>22.997946611909651</v>
       </c>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <v>8430</v>
       </c>
@@ -16355,7 +16357,7 @@
         <v>23.080082135523611</v>
       </c>
     </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <v>8460</v>
       </c>
@@ -16411,7 +16413,7 @@
         <v>23.162217659137578</v>
       </c>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <v>8490</v>
       </c>
@@ -16467,7 +16469,7 @@
         <v>23.244353182751539</v>
       </c>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <v>8520</v>
       </c>
@@ -16523,7 +16525,7 @@
         <v>23.326488706365499</v>
       </c>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <v>8550</v>
       </c>
@@ -16579,7 +16581,7 @@
         <v>23.40862422997947</v>
       </c>
     </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <v>8580</v>
       </c>
@@ -16635,7 +16637,7 @@
         <v>23.49075975359343</v>
       </c>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <v>8610</v>
       </c>
@@ -16691,7 +16693,7 @@
         <v>23.57289527720739</v>
       </c>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <v>8640</v>
       </c>
@@ -16747,7 +16749,7 @@
         <v>23.655030800821351</v>
       </c>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <v>8670</v>
       </c>
@@ -16803,7 +16805,7 @@
         <v>23.737166324435321</v>
       </c>
     </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <v>8700</v>
       </c>
@@ -16859,7 +16861,7 @@
         <v>23.819301848049282</v>
       </c>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <v>8730</v>
       </c>
@@ -16915,7 +16917,7 @@
         <v>23.901437371663249</v>
       </c>
     </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <v>8760</v>
       </c>
@@ -16971,7 +16973,7 @@
         <v>23.983572895277209</v>
       </c>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <v>8790</v>
       </c>
@@ -17027,7 +17029,7 @@
         <v>24.06570841889117</v>
       </c>
     </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <v>8820</v>
       </c>
@@ -17083,7 +17085,7 @@
         <v>24.14784394250513</v>
       </c>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <v>8850</v>
       </c>
@@ -17139,7 +17141,7 @@
         <v>24.229979466119101</v>
       </c>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <v>8880</v>
       </c>
@@ -17195,7 +17197,7 @@
         <v>24.312114989733061</v>
       </c>
     </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <v>8910</v>
       </c>
@@ -17251,7 +17253,7 @@
         <v>24.394250513347021</v>
       </c>
     </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <v>8940</v>
       </c>
@@ -17307,7 +17309,7 @@
         <v>24.476386036960989</v>
       </c>
     </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <v>8970</v>
       </c>
@@ -17363,7 +17365,7 @@
         <v>24.558521560574949</v>
       </c>
     </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <v>9000</v>
       </c>
@@ -17419,7 +17421,7 @@
         <v>24.640657084188909</v>
       </c>
     </row>
-    <row r="303" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <v>9030</v>
       </c>
@@ -17475,7 +17477,7 @@
         <v>24.722792607802869</v>
       </c>
     </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <v>9060</v>
       </c>
@@ -17531,7 +17533,7 @@
         <v>24.80492813141684</v>
       </c>
     </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <v>9090</v>
       </c>
@@ -17587,7 +17589,7 @@
         <v>24.887063655030801</v>
       </c>
     </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <v>9120</v>
       </c>
@@ -17643,7 +17645,7 @@
         <v>24.969199178644761</v>
       </c>
     </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <v>9150</v>
       </c>
@@ -17699,7 +17701,7 @@
         <v>25.051334702258728</v>
       </c>
     </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <v>9180</v>
       </c>
@@ -17755,7 +17757,7 @@
         <v>25.133470225872689</v>
       </c>
     </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <v>9210</v>
       </c>
@@ -17811,7 +17813,7 @@
         <v>25.215605749486649</v>
       </c>
     </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <v>9240</v>
       </c>
@@ -17867,7 +17869,7 @@
         <v>25.29774127310062</v>
       </c>
     </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <v>9270</v>
       </c>
@@ -17923,7 +17925,7 @@
         <v>25.37987679671458</v>
       </c>
     </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <v>9300</v>
       </c>
@@ -17979,7 +17981,7 @@
         <v>25.46201232032854</v>
       </c>
     </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <v>9330</v>
       </c>
@@ -18035,7 +18037,7 @@
         <v>25.5441478439425</v>
       </c>
     </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
         <v>9360</v>
       </c>
@@ -18091,7 +18093,7 @@
         <v>25.626283367556471</v>
       </c>
     </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
         <v>9390</v>
       </c>
@@ -18147,7 +18149,7 @@
         <v>25.708418891170432</v>
       </c>
     </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <v>9420</v>
       </c>
@@ -18203,7 +18205,7 @@
         <v>25.790554414784399</v>
       </c>
     </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
         <v>9450</v>
       </c>
@@ -18259,7 +18261,7 @@
         <v>25.872689938398359</v>
       </c>
     </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
         <v>9480</v>
       </c>
@@ -18315,7 +18317,7 @@
         <v>25.95482546201232</v>
       </c>
     </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
         <v>9510</v>
       </c>
@@ -18371,7 +18373,7 @@
         <v>26.03696098562628</v>
       </c>
     </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
         <v>9540</v>
       </c>
@@ -18427,7 +18429,7 @@
         <v>26.119096509240251</v>
       </c>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
         <v>9570</v>
       </c>
@@ -18483,7 +18485,7 @@
         <v>26.201232032854211</v>
       </c>
     </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
         <v>9600</v>
       </c>
@@ -18539,7 +18541,7 @@
         <v>26.283367556468171</v>
       </c>
     </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
         <v>9630</v>
       </c>
@@ -18595,7 +18597,7 @@
         <v>26.365503080082139</v>
       </c>
     </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
         <v>9660</v>
       </c>
@@ -18651,7 +18653,7 @@
         <v>26.447638603696099</v>
       </c>
     </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
         <v>9690</v>
       </c>
@@ -18707,7 +18709,7 @@
         <v>26.529774127310059</v>
       </c>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
         <v>9720</v>
       </c>
@@ -18763,7 +18765,7 @@
         <v>26.611909650924019</v>
       </c>
     </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
         <v>9750</v>
       </c>
@@ -18819,7 +18821,7 @@
         <v>26.69404517453799</v>
       </c>
     </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
         <v>9780</v>
       </c>
@@ -18875,7 +18877,7 @@
         <v>26.776180698151951</v>
       </c>
     </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
         <v>9810</v>
       </c>
@@ -18931,7 +18933,7 @@
         <v>26.858316221765911</v>
       </c>
     </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
         <v>9840</v>
       </c>
@@ -18987,7 +18989,7 @@
         <v>26.940451745379882</v>
       </c>
     </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
         <v>9870</v>
       </c>
@@ -19043,7 +19045,7 @@
         <v>27.022587268993838</v>
       </c>
     </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
         <v>9900</v>
       </c>
@@ -19099,7 +19101,7 @@
         <v>27.104722792607799</v>
       </c>
     </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A333" s="2">
         <v>9930</v>
       </c>
@@ -19155,7 +19157,7 @@
         <v>27.18685831622177</v>
       </c>
     </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A334" s="2">
         <v>9960</v>
       </c>
@@ -19211,7 +19213,7 @@
         <v>27.26899383983573</v>
       </c>
     </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A335" s="2">
         <v>9990</v>
       </c>
@@ -19267,7 +19269,7 @@
         <v>27.35112936344969</v>
       </c>
     </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A336" s="2">
         <v>10020</v>
       </c>
@@ -19323,7 +19325,7 @@
         <v>27.43326488706365</v>
       </c>
     </row>
-    <row r="337" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A337" s="2">
         <v>10050</v>
       </c>
@@ -19379,7 +19381,7 @@
         <v>27.515400410677621</v>
       </c>
     </row>
-    <row r="338" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A338" s="2">
         <v>10080</v>
       </c>
@@ -19435,7 +19437,7 @@
         <v>27.597535934291582</v>
       </c>
     </row>
-    <row r="339" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A339" s="2">
         <v>10110</v>
       </c>
@@ -19491,7 +19493,7 @@
         <v>27.679671457905549</v>
       </c>
     </row>
-    <row r="340" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A340" s="2">
         <v>10140</v>
       </c>
@@ -19547,7 +19549,7 @@
         <v>27.761806981519509</v>
       </c>
     </row>
-    <row r="341" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A341" s="2">
         <v>10170</v>
       </c>
@@ -19603,7 +19605,7 @@
         <v>27.843942505133469</v>
       </c>
     </row>
-    <row r="342" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A342" s="2">
         <v>10200</v>
       </c>
@@ -19659,7 +19661,7 @@
         <v>27.92607802874743</v>
       </c>
     </row>
-    <row r="343" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A343" s="2">
         <v>10230</v>
       </c>
@@ -19715,7 +19717,7 @@
         <v>28.008213552361401</v>
       </c>
     </row>
-    <row r="344" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A344" s="2">
         <v>10260</v>
       </c>
@@ -19771,7 +19773,7 @@
         <v>28.090349075975361</v>
       </c>
     </row>
-    <row r="345" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A345" s="2">
         <v>10290</v>
       </c>
@@ -19827,7 +19829,7 @@
         <v>28.172484599589321</v>
       </c>
     </row>
-    <row r="346" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A346" s="2">
         <v>10320</v>
       </c>
@@ -19883,7 +19885,7 @@
         <v>28.254620123203281</v>
       </c>
     </row>
-    <row r="347" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A347" s="2">
         <v>10350</v>
       </c>
@@ -19939,7 +19941,7 @@
         <v>28.336755646817249</v>
       </c>
     </row>
-    <row r="348" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A348" s="2">
         <v>10380</v>
       </c>
@@ -19995,7 +19997,7 @@
         <v>28.418891170431209</v>
       </c>
     </row>
-    <row r="349" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A349" s="2">
         <v>10410</v>
       </c>
@@ -20051,7 +20053,7 @@
         <v>28.501026694045169</v>
       </c>
     </row>
-    <row r="350" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A350" s="2">
         <v>10440</v>
       </c>
@@ -20107,7 +20109,7 @@
         <v>28.58316221765914</v>
       </c>
     </row>
-    <row r="351" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A351" s="2">
         <v>10470</v>
       </c>
@@ -20163,7 +20165,7 @@
         <v>28.6652977412731</v>
       </c>
     </row>
-    <row r="352" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A352" s="2">
         <v>10500</v>
       </c>
@@ -20219,7 +20221,7 @@
         <v>28.747433264887061</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A353" s="2">
         <v>10530</v>
       </c>
@@ -20275,7 +20277,7 @@
         <v>28.829568788501032</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A354" s="2">
         <v>10560</v>
       </c>
@@ -20331,7 +20333,7 @@
         <v>28.911704312114988</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A355" s="2">
         <v>10590</v>
       </c>
@@ -20387,7 +20389,7 @@
         <v>28.993839835728949</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A356" s="2">
         <v>10620</v>
       </c>
@@ -20443,7 +20445,7 @@
         <v>29.07597535934292</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A357" s="2">
         <v>10650</v>
       </c>
@@ -20499,7 +20501,7 @@
         <v>29.15811088295688</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A358" s="2">
         <v>10680</v>
       </c>
@@ -20555,7 +20557,7 @@
         <v>29.24024640657084</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A359" s="2">
         <v>10710</v>
       </c>
@@ -20611,7 +20613,7 @@
         <v>29.3223819301848</v>
       </c>
     </row>
-    <row r="360" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A360" s="2">
         <v>10740</v>
       </c>
@@ -20667,7 +20669,7 @@
         <v>29.404517453798771</v>
       </c>
     </row>
-    <row r="361" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A361" s="2">
         <v>10770</v>
       </c>
@@ -20723,7 +20725,7 @@
         <v>29.486652977412732</v>
       </c>
     </row>
-    <row r="362" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A362" s="2">
         <v>10800</v>
       </c>
@@ -20779,7 +20781,7 @@
         <v>29.568788501026699</v>
       </c>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A363" s="2">
         <v>10830</v>
       </c>
@@ -20835,7 +20837,7 @@
         <v>29.650924024640659</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A364" s="2">
         <v>10860</v>
       </c>
@@ -20891,7 +20893,7 @@
         <v>29.733059548254619</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A365" s="2">
         <v>10890</v>
       </c>
@@ -20947,7 +20949,7 @@
         <v>29.81519507186858</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A366" s="2">
         <v>10920</v>
       </c>
@@ -21003,7 +21005,7 @@
         <v>29.897330595482551</v>
       </c>
     </row>
-    <row r="367" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A367" s="2">
         <v>10950</v>
       </c>
@@ -21059,7 +21061,7 @@
         <v>29.979466119096511</v>
       </c>
     </row>
-    <row r="368" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A368" s="2">
         <v>10980</v>
       </c>
@@ -21115,7 +21117,7 @@
         <v>30.061601642710471</v>
       </c>
     </row>
-    <row r="369" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A369" s="2">
         <v>11010</v>
       </c>
@@ -21171,7 +21173,7 @@
         <v>30.143737166324431</v>
       </c>
     </row>
-    <row r="370" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A370" s="2">
         <v>11040</v>
       </c>
@@ -21227,7 +21229,7 @@
         <v>30.225872689938399</v>
       </c>
     </row>
-    <row r="371" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A371" s="2">
         <v>11070</v>
       </c>
@@ -21283,7 +21285,7 @@
         <v>30.308008213552359</v>
       </c>
     </row>
-    <row r="372" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A372" s="2">
         <v>11100</v>
       </c>
@@ -21339,7 +21341,7 @@
         <v>30.39014373716633</v>
       </c>
     </row>
-    <row r="373" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A373" s="2">
         <v>11130</v>
       </c>
@@ -21395,7 +21397,7 @@
         <v>30.47227926078029</v>
       </c>
     </row>
-    <row r="374" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A374" s="2">
         <v>11160</v>
       </c>
@@ -21451,7 +21453,7 @@
         <v>30.55441478439425</v>
       </c>
     </row>
-    <row r="375" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A375" s="2">
         <v>11190</v>
       </c>
@@ -21507,7 +21509,7 @@
         <v>30.636550308008221</v>
       </c>
     </row>
-    <row r="376" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A376" s="2">
         <v>11220</v>
       </c>
@@ -21563,7 +21565,7 @@
         <v>30.718685831622182</v>
       </c>
     </row>
-    <row r="377" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A377" s="2">
         <v>11250</v>
       </c>
@@ -21619,7 +21621,7 @@
         <v>30.800821355236138</v>
       </c>
     </row>
-    <row r="378" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A378" s="2">
         <v>11280</v>
       </c>
@@ -21675,7 +21677,7 @@
         <v>30.882956878850109</v>
       </c>
     </row>
-    <row r="379" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A379" s="2">
         <v>11310</v>
       </c>
@@ -21731,7 +21733,7 @@
         <v>30.965092402464069</v>
       </c>
     </row>
-    <row r="380" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A380" s="2">
         <v>11340</v>
       </c>
@@ -21787,7 +21789,7 @@
         <v>31.04722792607803</v>
       </c>
     </row>
-    <row r="381" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A381" s="2">
         <v>11370</v>
       </c>
@@ -21843,7 +21845,7 @@
         <v>31.129363449692001</v>
       </c>
     </row>
-    <row r="382" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A382" s="2">
         <v>11400</v>
       </c>
@@ -21899,7 +21901,7 @@
         <v>31.211498973305961</v>
       </c>
     </row>
-    <row r="383" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A383" s="2">
         <v>11430</v>
       </c>
@@ -21955,7 +21957,7 @@
         <v>31.293634496919921</v>
       </c>
     </row>
-    <row r="384" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A384" s="2">
         <v>11460</v>
       </c>
@@ -22011,7 +22013,7 @@
         <v>31.375770020533881</v>
       </c>
     </row>
-    <row r="385" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A385" s="2">
         <v>11490</v>
       </c>
@@ -22067,7 +22069,7 @@
         <v>31.457905544147849</v>
       </c>
     </row>
-    <row r="386" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A386" s="2">
         <v>11520</v>
       </c>
@@ -22123,7 +22125,7 @@
         <v>31.540041067761809</v>
       </c>
     </row>
-    <row r="387" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A387" s="2">
         <v>11550</v>
       </c>
@@ -22179,7 +22181,7 @@
         <v>31.622176591375769</v>
       </c>
     </row>
-    <row r="388" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A388" s="2">
         <v>11580</v>
       </c>
@@ -22235,7 +22237,7 @@
         <v>31.70431211498974</v>
       </c>
     </row>
-    <row r="389" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A389" s="2">
         <v>11610</v>
       </c>
@@ -22291,7 +22293,7 @@
         <v>31.7864476386037</v>
       </c>
     </row>
-    <row r="390" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A390" s="2">
         <v>11640</v>
       </c>
@@ -22347,7 +22349,7 @@
         <v>31.868583162217661</v>
       </c>
     </row>
-    <row r="391" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A391" s="2">
         <v>11670</v>
       </c>
@@ -22403,7 +22405,7 @@
         <v>31.950718685831621</v>
       </c>
     </row>
-    <row r="392" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A392" s="2">
         <v>11700</v>
       </c>
@@ -22459,7 +22461,7 @@
         <v>32.032854209445588</v>
       </c>
     </row>
-    <row r="393" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A393" s="2">
         <v>11730</v>
       </c>
@@ -22515,7 +22517,7 @@
         <v>32.114989733059552</v>
       </c>
     </row>
-    <row r="394" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A394" s="2">
         <v>11760</v>
       </c>
@@ -22571,7 +22573,7 @@
         <v>32.197125256673523</v>
       </c>
     </row>
-    <row r="395" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A395" s="2">
         <v>11790</v>
       </c>
@@ -22627,7 +22629,7 @@
         <v>32.27926078028748</v>
       </c>
     </row>
-    <row r="396" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A396" s="2">
         <v>11820</v>
       </c>
@@ -22683,7 +22685,7 @@
         <v>32.361396303901437</v>
       </c>
     </row>
-    <row r="397" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A397" s="2">
         <v>11850</v>
       </c>
@@ -22739,7 +22741,7 @@
         <v>32.443531827515407</v>
       </c>
     </row>
-    <row r="398" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A398" s="2">
         <v>11880</v>
       </c>
@@ -22795,7 +22797,7 @@
         <v>32.525667351129357</v>
       </c>
     </row>
-    <row r="399" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A399" s="2">
         <v>11910</v>
       </c>
@@ -22851,7 +22853,7 @@
         <v>32.607802874743328</v>
       </c>
     </row>
-    <row r="400" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A400" s="2">
         <v>11940</v>
       </c>
@@ -22907,7 +22909,7 @@
         <v>32.689938398357292</v>
       </c>
     </row>
-    <row r="401" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A401" s="2">
         <v>11970</v>
       </c>
@@ -22963,7 +22965,7 @@
         <v>32.772073921971263</v>
       </c>
     </row>
-    <row r="402" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A402" s="2">
         <v>12000</v>
       </c>
@@ -23019,7 +23021,7 @@
         <v>32.854209445585219</v>
       </c>
     </row>
-    <row r="403" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A403" s="2">
         <v>12030</v>
       </c>
@@ -23075,7 +23077,7 @@
         <v>32.936344969199183</v>
       </c>
     </row>
-    <row r="404" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A404" s="2">
         <v>12060</v>
       </c>
@@ -23131,7 +23133,7 @@
         <v>33.018480492813147</v>
       </c>
     </row>
-    <row r="405" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A405" s="2">
         <v>12090</v>
       </c>
@@ -23187,7 +23189,7 @@
         <v>33.100616016427111</v>
       </c>
     </row>
-    <row r="406" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A406" s="2">
         <v>12120</v>
       </c>
@@ -23243,7 +23245,7 @@
         <v>33.182751540041068</v>
       </c>
     </row>
-    <row r="407" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A407" s="2">
         <v>12150</v>
       </c>
@@ -23299,7 +23301,7 @@
         <v>33.264887063655031</v>
       </c>
     </row>
-    <row r="408" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A408" s="2">
         <v>12180</v>
       </c>
@@ -23355,7 +23357,7 @@
         <v>33.347022587269002</v>
       </c>
     </row>
-    <row r="409" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A409" s="2">
         <v>12210</v>
       </c>
@@ -23411,7 +23413,7 @@
         <v>33.429158110882959</v>
       </c>
     </row>
-    <row r="410" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A410" s="2">
         <v>12240</v>
       </c>
@@ -23467,7 +23469,7 @@
         <v>33.511293634496923</v>
       </c>
     </row>
-    <row r="411" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A411" s="2">
         <v>12270</v>
       </c>
@@ -23523,7 +23525,7 @@
         <v>33.593429158110887</v>
       </c>
     </row>
-    <row r="412" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A412" s="2">
         <v>12300</v>
       </c>
@@ -23579,7 +23581,7 @@
         <v>33.67556468172485</v>
       </c>
     </row>
-    <row r="413" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A413" s="2">
         <v>12330</v>
       </c>
@@ -23635,7 +23637,7 @@
         <v>33.757700205338807</v>
       </c>
     </row>
-    <row r="414" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A414" s="2">
         <v>12360</v>
       </c>
@@ -23691,7 +23693,7 @@
         <v>33.839835728952778</v>
       </c>
     </row>
-    <row r="415" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A415" s="2">
         <v>12390</v>
       </c>
@@ -23747,7 +23749,7 @@
         <v>33.921971252566742</v>
       </c>
     </row>
-    <row r="416" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A416" s="2">
         <v>12420</v>
       </c>
@@ -23803,7 +23805,7 @@
         <v>34.004106776180699</v>
       </c>
     </row>
-    <row r="417" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A417" s="2">
         <v>12450</v>
       </c>
@@ -23859,7 +23861,7 @@
         <v>34.086242299794662</v>
       </c>
     </row>
-    <row r="418" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A418" s="2">
         <v>12480</v>
       </c>
@@ -23915,7 +23917,7 @@
         <v>34.168377823408633</v>
       </c>
     </row>
-    <row r="419" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A419" s="2">
         <v>12510</v>
       </c>
@@ -23971,7 +23973,7 @@
         <v>34.25051334702259</v>
       </c>
     </row>
-    <row r="420" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A420" s="2">
         <v>12540</v>
       </c>
@@ -24027,7 +24029,7 @@
         <v>34.332648870636547</v>
       </c>
     </row>
-    <row r="421" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A421" s="2">
         <v>12569.999999999991</v>
       </c>
@@ -24083,7 +24085,7 @@
         <v>34.414784394250511</v>
       </c>
     </row>
-    <row r="422" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A422" s="2">
         <v>12599.999999999991</v>
       </c>
@@ -24139,7 +24141,7 @@
         <v>34.496919917864467</v>
       </c>
     </row>
-    <row r="423" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A423" s="2">
         <v>12630</v>
       </c>
@@ -24195,7 +24197,7 @@
         <v>34.579055441478438</v>
       </c>
     </row>
-    <row r="424" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A424" s="2">
         <v>12660</v>
       </c>
@@ -24251,7 +24253,7 @@
         <v>34.661190965092402</v>
       </c>
     </row>
-    <row r="425" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A425" s="2">
         <v>12690</v>
       </c>
@@ -24307,7 +24309,7 @@
         <v>34.743326488706373</v>
       </c>
     </row>
-    <row r="426" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A426" s="2">
         <v>12720</v>
       </c>
@@ -24363,7 +24365,7 @@
         <v>34.82546201232033</v>
       </c>
     </row>
-    <row r="427" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A427" s="2">
         <v>12750</v>
       </c>
@@ -24419,7 +24421,7 @@
         <v>34.907597535934293</v>
       </c>
     </row>
-    <row r="428" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A428" s="2">
         <v>12780</v>
       </c>
@@ -24475,7 +24477,7 @@
         <v>34.989733059548257</v>
       </c>
     </row>
-    <row r="429" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A429" s="2">
         <v>12810</v>
       </c>
@@ -24531,7 +24533,7 @@
         <v>35.071868583162221</v>
       </c>
     </row>
-    <row r="430" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A430" s="2">
         <v>12839.999999999991</v>
       </c>
@@ -24587,7 +24589,7 @@
         <v>35.154004106776178</v>
       </c>
     </row>
-    <row r="431" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A431" s="2">
         <v>12869.999999999991</v>
       </c>
@@ -24643,7 +24645,7 @@
         <v>35.236139630390142</v>
       </c>
     </row>
-    <row r="432" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A432" s="2">
         <v>12900</v>
       </c>
@@ -24699,7 +24701,7 @@
         <v>35.318275154004112</v>
       </c>
     </row>
-    <row r="433" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A433" s="2">
         <v>12930</v>
       </c>
@@ -24755,7 +24757,7 @@
         <v>35.400410677618069</v>
       </c>
     </row>
-    <row r="434" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A434" s="2">
         <v>12960</v>
       </c>
@@ -24811,7 +24813,7 @@
         <v>35.482546201232033</v>
       </c>
     </row>
-    <row r="435" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A435" s="2">
         <v>12990</v>
       </c>
@@ -24867,7 +24869,7 @@
         <v>35.564681724845997</v>
       </c>
     </row>
-    <row r="436" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A436" s="2">
         <v>13020</v>
       </c>
@@ -24923,7 +24925,7 @@
         <v>35.646817248459961</v>
       </c>
     </row>
-    <row r="437" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A437" s="2">
         <v>13050</v>
       </c>
@@ -24979,7 +24981,7 @@
         <v>35.728952772073917</v>
       </c>
     </row>
-    <row r="438" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A438" s="2">
         <v>13080</v>
       </c>
@@ -25035,7 +25037,7 @@
         <v>35.811088295687888</v>
       </c>
     </row>
-    <row r="439" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A439" s="2">
         <v>13109.999999999991</v>
       </c>
@@ -25091,7 +25093,7 @@
         <v>35.893223819301838</v>
       </c>
     </row>
-    <row r="440" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A440" s="2">
         <v>13139.999999999991</v>
       </c>
@@ -25147,7 +25149,7 @@
         <v>35.975359342915809</v>
       </c>
     </row>
-    <row r="441" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A441" s="2">
         <v>13170</v>
       </c>
@@ -25203,7 +25205,7 @@
         <v>36.057494866529773</v>
       </c>
     </row>
-    <row r="442" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A442" s="2">
         <v>13200</v>
       </c>
@@ -25259,7 +25261,7 @@
         <v>36.139630390143743</v>
       </c>
     </row>
-    <row r="443" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A443" s="2">
         <v>13230</v>
       </c>
@@ -25315,7 +25317,7 @@
         <v>36.2217659137577</v>
       </c>
     </row>
-    <row r="444" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A444" s="2">
         <v>13260</v>
       </c>
@@ -25371,7 +25373,7 @@
         <v>36.303901437371657</v>
       </c>
     </row>
-    <row r="445" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A445" s="2">
         <v>13290</v>
       </c>
@@ -25427,7 +25429,7 @@
         <v>36.386036960985628</v>
       </c>
     </row>
-    <row r="446" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A446" s="2">
         <v>13320</v>
       </c>
@@ -25483,7 +25485,7 @@
         <v>36.468172484599592</v>
       </c>
     </row>
-    <row r="447" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A447" s="2">
         <v>13350</v>
       </c>
@@ -25539,7 +25541,7 @@
         <v>36.550308008213563</v>
       </c>
     </row>
-    <row r="448" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A448" s="2">
         <v>13380</v>
       </c>
@@ -25595,7 +25597,7 @@
         <v>36.632443531827512</v>
       </c>
     </row>
-    <row r="449" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A449" s="2">
         <v>13410</v>
       </c>
@@ -25651,7 +25653,7 @@
         <v>36.714579055441483</v>
       </c>
     </row>
-    <row r="450" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A450" s="2">
         <v>13440</v>
       </c>
@@ -25707,7 +25709,7 @@
         <v>36.79671457905544</v>
       </c>
     </row>
-    <row r="451" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A451" s="2">
         <v>13470</v>
       </c>
@@ -25763,7 +25765,7 @@
         <v>36.878850102669396</v>
       </c>
     </row>
-    <row r="452" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A452" s="2">
         <v>13500</v>
       </c>
@@ -25819,7 +25821,7 @@
         <v>36.960985626283367</v>
       </c>
     </row>
-    <row r="453" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A453" s="2">
         <v>13530</v>
       </c>
@@ -25875,7 +25877,7 @@
         <v>37.043121149897331</v>
       </c>
     </row>
-    <row r="454" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A454" s="2">
         <v>13560</v>
       </c>
@@ -25931,7 +25933,7 @@
         <v>37.125256673511288</v>
       </c>
     </row>
-    <row r="455" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A455" s="2">
         <v>13590</v>
       </c>
@@ -25987,7 +25989,7 @@
         <v>37.207392197125259</v>
       </c>
     </row>
-    <row r="456" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A456" s="2">
         <v>13620</v>
       </c>
@@ -26043,7 +26045,7 @@
         <v>37.289527720739223</v>
       </c>
     </row>
-    <row r="457" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A457" s="2">
         <v>13650</v>
       </c>
@@ -26099,7 +26101,7 @@
         <v>37.371663244353179</v>
       </c>
     </row>
-    <row r="458" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A458" s="2">
         <v>13680</v>
       </c>
@@ -26155,7 +26157,7 @@
         <v>37.453798767967143</v>
       </c>
     </row>
-    <row r="459" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A459" s="2">
         <v>13710</v>
       </c>
@@ -26211,7 +26213,7 @@
         <v>37.535934291581107</v>
       </c>
     </row>
-    <row r="460" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A460" s="2">
         <v>13740</v>
       </c>
@@ -26267,7 +26269,7 @@
         <v>37.618069815195071</v>
       </c>
     </row>
-    <row r="461" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A461" s="2">
         <v>13770</v>
       </c>
@@ -26323,7 +26325,7 @@
         <v>37.700205338809027</v>
       </c>
     </row>
-    <row r="462" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A462" s="2">
         <v>13800</v>
       </c>
@@ -26379,7 +26381,7 @@
         <v>37.782340862422998</v>
       </c>
     </row>
-    <row r="463" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A463" s="2">
         <v>13830</v>
       </c>
@@ -26435,7 +26437,7 @@
         <v>37.864476386036962</v>
       </c>
     </row>
-    <row r="464" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A464" s="2">
         <v>13860</v>
       </c>
@@ -26491,7 +26493,7 @@
         <v>37.946611909650933</v>
       </c>
     </row>
-    <row r="465" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A465" s="2">
         <v>13890</v>
       </c>
@@ -26547,7 +26549,7 @@
         <v>38.02874743326489</v>
       </c>
     </row>
-    <row r="466" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A466" s="2">
         <v>13920</v>
       </c>
@@ -26603,7 +26605,7 @@
         <v>38.110882956878847</v>
       </c>
     </row>
-    <row r="467" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A467" s="2">
         <v>13950</v>
       </c>
@@ -26659,7 +26661,7 @@
         <v>38.19301848049281</v>
       </c>
     </row>
-    <row r="468" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A468" s="2">
         <v>13980</v>
       </c>
@@ -26715,7 +26717,7 @@
         <v>38.275154004106767</v>
       </c>
     </row>
-    <row r="469" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A469" s="2">
         <v>14010</v>
       </c>
@@ -26771,7 +26773,7 @@
         <v>38.357289527720738</v>
       </c>
     </row>
-    <row r="470" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A470" s="2">
         <v>14040</v>
       </c>
@@ -26827,7 +26829,7 @@
         <v>38.439425051334702</v>
       </c>
     </row>
-    <row r="471" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A471" s="2">
         <v>14070</v>
       </c>
@@ -26883,7 +26885,7 @@
         <v>38.521560574948673</v>
       </c>
     </row>
-    <row r="472" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A472" s="2">
         <v>14100</v>
       </c>
@@ -26939,7 +26941,7 @@
         <v>38.603696098562629</v>
       </c>
     </row>
-    <row r="473" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A473" s="2">
         <v>14130</v>
       </c>
@@ -26995,7 +26997,7 @@
         <v>38.685831622176593</v>
       </c>
     </row>
-    <row r="474" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A474" s="2">
         <v>14160</v>
       </c>
@@ -27051,7 +27053,7 @@
         <v>38.767967145790557</v>
       </c>
     </row>
-    <row r="475" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A475" s="2">
         <v>14190</v>
       </c>
@@ -27107,7 +27109,7 @@
         <v>38.850102669404521</v>
       </c>
     </row>
-    <row r="476" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A476" s="2">
         <v>14220</v>
       </c>
@@ -27163,7 +27165,7 @@
         <v>38.932238193018478</v>
       </c>
     </row>
-    <row r="477" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A477" s="2">
         <v>14250</v>
       </c>
@@ -27219,7 +27221,7 @@
         <v>39.014373716632441</v>
       </c>
     </row>
-    <row r="478" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A478" s="2">
         <v>14280</v>
       </c>
@@ -27275,7 +27277,7 @@
         <v>39.096509240246412</v>
       </c>
     </row>
-    <row r="479" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A479" s="2">
         <v>14310</v>
       </c>
@@ -27331,7 +27333,7 @@
         <v>39.178644763860369</v>
       </c>
     </row>
-    <row r="480" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A480" s="2">
         <v>14340</v>
       </c>
@@ -27387,7 +27389,7 @@
         <v>39.260780287474333</v>
       </c>
     </row>
-    <row r="481" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A481" s="2">
         <v>14370</v>
       </c>
@@ -27443,7 +27445,7 @@
         <v>39.342915811088297</v>
       </c>
     </row>
-    <row r="482" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A482" s="2">
         <v>14400</v>
       </c>
@@ -27499,7 +27501,7 @@
         <v>39.42505133470226</v>
       </c>
     </row>
-    <row r="483" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A483" s="2">
         <v>14430</v>
       </c>
@@ -27555,7 +27557,7 @@
         <v>39.507186858316217</v>
       </c>
     </row>
-    <row r="484" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A484" s="2">
         <v>14460</v>
       </c>
@@ -27611,7 +27613,7 @@
         <v>39.589322381930188</v>
       </c>
     </row>
-    <row r="485" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A485" s="2">
         <v>14490</v>
       </c>
@@ -27667,7 +27669,7 @@
         <v>39.671457905544138</v>
       </c>
     </row>
-    <row r="486" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A486" s="2">
         <v>14520</v>
       </c>
@@ -27723,7 +27725,7 @@
         <v>39.753593429158109</v>
       </c>
     </row>
-    <row r="487" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A487" s="2">
         <v>14550</v>
       </c>
@@ -27779,7 +27781,7 @@
         <v>39.835728952772072</v>
       </c>
     </row>
-    <row r="488" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A488" s="2">
         <v>14580</v>
       </c>
@@ -27835,7 +27837,7 @@
         <v>39.917864476386043</v>
       </c>
     </row>
-    <row r="489" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A489" s="2">
         <v>14610</v>
       </c>
@@ -27891,736 +27893,736 @@
         <v>40</v>
       </c>
     </row>
-    <row r="490" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A490" s="2"/>
     </row>
-    <row r="491" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A491" s="2"/>
     </row>
-    <row r="492" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A492" s="2"/>
     </row>
-    <row r="493" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A493" s="2"/>
     </row>
-    <row r="494" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A494" s="2"/>
     </row>
-    <row r="495" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A495" s="2"/>
     </row>
-    <row r="496" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A496" s="2"/>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A497" s="2"/>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A498" s="2"/>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A499" s="2"/>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A500" s="2"/>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A501" s="2"/>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A502" s="2"/>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A503" s="2"/>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A504" s="2"/>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A505" s="2"/>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A506" s="2"/>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A507" s="2"/>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A508" s="2"/>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A509" s="2"/>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A510" s="2"/>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A511" s="2"/>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A512" s="2"/>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A513" s="2"/>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A514" s="2"/>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A515" s="2"/>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A516" s="2"/>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A517" s="2"/>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A518" s="2"/>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A519" s="2"/>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A520" s="2"/>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A521" s="2"/>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A522" s="2"/>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A523" s="2"/>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A524" s="2"/>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A525" s="2"/>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A526" s="2"/>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A527" s="2"/>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A528" s="2"/>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A529" s="2"/>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A530" s="2"/>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A531" s="2"/>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A532" s="2"/>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A533" s="2"/>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A534" s="2"/>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A535" s="2"/>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A536" s="2"/>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A537" s="2"/>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A538" s="2"/>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A539" s="2"/>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A540" s="2"/>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A541" s="2"/>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A542" s="2"/>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A543" s="2"/>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A544" s="2"/>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A545" s="2"/>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A546" s="2"/>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A547" s="2"/>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A548" s="2"/>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A549" s="2"/>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A550" s="2"/>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A551" s="2"/>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A552" s="2"/>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A553" s="2"/>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A554" s="2"/>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A555" s="2"/>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A556" s="2"/>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A557" s="2"/>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A558" s="2"/>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A559" s="2"/>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A560" s="2"/>
     </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A561" s="2"/>
     </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A562" s="2"/>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A563" s="2"/>
     </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A564" s="2"/>
     </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A565" s="2"/>
     </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A566" s="2"/>
     </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A567" s="2"/>
     </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A568" s="2"/>
     </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A569" s="2"/>
     </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A570" s="2"/>
     </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A571" s="2"/>
     </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A572" s="2"/>
     </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A573" s="2"/>
     </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A574" s="2"/>
     </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A575" s="2"/>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A576" s="2"/>
     </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A577" s="2"/>
     </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A578" s="2"/>
     </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A579" s="2"/>
     </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A580" s="2"/>
     </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A581" s="2"/>
     </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A582" s="2"/>
     </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A583" s="2"/>
     </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A584" s="2"/>
     </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A585" s="2"/>
     </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A586" s="2"/>
     </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A587" s="2"/>
     </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A588" s="2"/>
     </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A589" s="2"/>
     </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A590" s="2"/>
     </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A591" s="2"/>
     </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A592" s="2"/>
     </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A593" s="2"/>
     </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A594" s="2"/>
     </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A595" s="2"/>
     </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A596" s="2"/>
     </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A597" s="2"/>
     </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A598" s="2"/>
     </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A599" s="2"/>
     </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A600" s="2"/>
     </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A601" s="2"/>
     </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A602" s="2"/>
     </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A603" s="2"/>
     </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A604" s="2"/>
     </row>
-    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A605" s="2"/>
     </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A606" s="2"/>
     </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A607" s="2"/>
     </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A608" s="2"/>
     </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A609" s="2"/>
     </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A610" s="2"/>
     </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A611" s="2"/>
     </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A612" s="2"/>
     </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A613" s="2"/>
     </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A614" s="2"/>
     </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A615" s="2"/>
     </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A616" s="2"/>
     </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A617" s="2"/>
     </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A618" s="2"/>
     </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A619" s="2"/>
     </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A620" s="2"/>
     </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A621" s="2"/>
     </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A622" s="2"/>
     </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A623" s="2"/>
     </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A624" s="2"/>
     </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A625" s="2"/>
     </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A626" s="2"/>
     </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A627" s="2"/>
     </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A628" s="2"/>
     </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A629" s="2"/>
     </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A630" s="2"/>
     </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A631" s="2"/>
     </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A632" s="2"/>
     </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A633" s="2"/>
     </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A634" s="2"/>
     </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A635" s="2"/>
     </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A636" s="2"/>
     </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A637" s="2"/>
     </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A638" s="2"/>
     </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A639" s="2"/>
     </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A640" s="2"/>
     </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A641" s="2"/>
     </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A642" s="2"/>
     </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A643" s="2"/>
     </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A644" s="2"/>
     </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A645" s="2"/>
     </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A646" s="2"/>
     </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A647" s="2"/>
     </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A648" s="2"/>
     </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A649" s="2"/>
     </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A650" s="2"/>
     </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A651" s="2"/>
     </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A652" s="2"/>
     </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A653" s="2"/>
     </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A654" s="2"/>
     </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A655" s="2"/>
     </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A656" s="2"/>
     </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A657" s="2"/>
     </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A658" s="2"/>
     </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A659" s="2"/>
     </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A660" s="2"/>
     </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A661" s="2"/>
     </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A662" s="2"/>
     </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A663" s="2"/>
     </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A664" s="2"/>
     </row>
-    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A665" s="2"/>
     </row>
-    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A666" s="2"/>
     </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A667" s="2"/>
     </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A668" s="2"/>
     </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A669" s="2"/>
     </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A670" s="2"/>
     </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A671" s="2"/>
     </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A672" s="2"/>
     </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A673" s="2"/>
     </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A674" s="2"/>
     </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A675" s="2"/>
     </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A676" s="2"/>
     </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A677" s="2"/>
     </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A678" s="2"/>
     </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A679" s="2"/>
     </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A680" s="2"/>
     </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A681" s="2"/>
     </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A682" s="2"/>
     </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A683" s="2"/>
     </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A684" s="2"/>
     </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A685" s="2"/>
     </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A686" s="2"/>
     </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A687" s="2"/>
     </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A688" s="2"/>
     </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A689" s="2"/>
     </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A690" s="2"/>
     </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A691" s="2"/>
     </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A692" s="2"/>
     </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A693" s="2"/>
     </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A694" s="2"/>
     </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A695" s="2"/>
     </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A696" s="2"/>
     </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A697" s="2"/>
     </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A698" s="2"/>
     </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A699" s="2"/>
     </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A700" s="2"/>
     </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A701" s="2"/>
     </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A702" s="2"/>
     </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A703" s="2"/>
     </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A704" s="2"/>
     </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A705" s="2"/>
     </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A706" s="2"/>
     </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A707" s="2"/>
     </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A708" s="2"/>
     </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A709" s="2"/>
     </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A710" s="2"/>
     </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A711" s="2"/>
     </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A712" s="2"/>
     </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A713" s="2"/>
     </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A714" s="2"/>
     </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A715" s="2"/>
     </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A716" s="2"/>
     </row>
-    <row r="717" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A717" s="2"/>
     </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A718" s="2"/>
     </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A719" s="2"/>
     </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A720" s="2"/>
     </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A721" s="2"/>
     </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A722" s="2"/>
     </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A723" s="2"/>
     </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A724" s="2"/>
     </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A725" s="2"/>
     </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A726" s="2"/>
     </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A727" s="2"/>
     </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A728" s="2"/>
     </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A729" s="2"/>
     </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A730" s="2"/>
     </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A731" s="2"/>
     </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A732" s="2"/>
     </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A733" s="2"/>
     </row>
   </sheetData>
